--- a/data/hotels_by_city/Denver/Denver_shard_32.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_32.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d12248781-Reviews-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Comfort-Suites-Near-Denver-Downtown.h1164.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,618 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r593646094-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>12248781</t>
+  </si>
+  <si>
+    <t>593646094</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Close to everything!  Free plentiful parking!  Dogs permitted!</t>
+  </si>
+  <si>
+    <t>so, i don't have a dog, but people might like this convenience... nice hotel.very roomy, good staff, clean room.. wi-fi required regular and multiple log-ins.typical breakfast.  pool.   I would certainly return.. this hotel shares a building with Mainstay Hotels... don't know about the other , but two hotels on one property... interesting.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>so, i don't have a dog, but people might like this convenience... nice hotel.very roomy, good staff, clean room.. wi-fi required regular and multiple log-ins.typical breakfast.  pool.   I would certainly return.. this hotel shares a building with Mainstay Hotels... don't know about the other , but two hotels on one property... interesting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r588592022-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>588592022</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>After camping and sleeping on the ground for a week this hotel was heaven! The beds were very comfortable, the shower was wonderful with a surprisingly deep tub for a nice bath.  The air conditioning was able to go below 70 degrees.  This was by far the best hotel on our trip.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>After camping and sleeping on the ground for a week this hotel was heaven! The beds were very comfortable, the shower was wonderful with a surprisingly deep tub for a nice bath.  The air conditioning was able to go below 70 degrees.  This was by far the best hotel on our trip.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r586793122-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586793122</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Almost Perfect</t>
+  </si>
+  <si>
+    <t>Clean and modern hotel with spacious rooms containing full amenities. Welcoming staff, indoor pool, great fitness centre and good breakfast. Also offer free snacks at night. Wifi works well and lots of free parking. The only complaints are that the area is a bit run down and there was a noise somewhere in the motel like gurgling pipes. Unsure if it was widespread or just our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Clean and modern hotel with spacious rooms containing full amenities. Welcoming staff, indoor pool, great fitness centre and good breakfast. Also offer free snacks at night. Wifi works well and lots of free parking. The only complaints are that the area is a bit run down and there was a noise somewhere in the motel like gurgling pipes. Unsure if it was widespread or just our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r582090524-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>582090524</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>It's new? Meh.</t>
+  </si>
+  <si>
+    <t>This hotel is about a year old, very modern decor and comfortable accommodations.  The service was friendly.  Here's where they lost me:  The toilet ran all night, the WiFi is not streaming device friendly, and the shower pressure was very weak.Expected a little more.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is about a year old, very modern decor and comfortable accommodations.  The service was friendly.  Here's where they lost me:  The toilet ran all night, the WiFi is not streaming device friendly, and the shower pressure was very weak.Expected a little more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r579019575-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>579019575</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean hotel</t>
+  </si>
+  <si>
+    <t>Overall, the experience was great. The staff were very helpful and friendly. The hotel was clean, the continental breakfast was great, and free parking! Even though it isn't downtown it is right by the freeway and a short drive. The only con I will mention was that the surrounding area didn't seem like a great place. That being said the hotel parking lot and hotel itself were perfectly fine. You just wouldn't want to venture out for a walk anywhere.I would definitely recommend this hotel to anyone looking to stay in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Overall, the experience was great. The staff were very helpful and friendly. The hotel was clean, the continental breakfast was great, and free parking! Even though it isn't downtown it is right by the freeway and a short drive. The only con I will mention was that the surrounding area didn't seem like a great place. That being said the hotel parking lot and hotel itself were perfectly fine. You just wouldn't want to venture out for a walk anywhere.I would definitely recommend this hotel to anyone looking to stay in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r567998640-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567998640</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>It's a hotel</t>
+  </si>
+  <si>
+    <t>Pros:-free parking-free coffee, cookies, drinks, dinner sometimes, and breakfast-friendly staff-nice rooms-comfy beds-good location-hot breakfast items-free wifiCons:-no towel racks or bars in the bathroomMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Comfort S, Supervisor at Comfort Suites Denver Near Downtown, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Pros:-free parking-free coffee, cookies, drinks, dinner sometimes, and breakfast-friendly staff-nice rooms-comfy beds-good location-hot breakfast items-free wifiCons:-no towel racks or bars in the bathroomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r558469522-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>558469522</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed experience </t>
+  </si>
+  <si>
+    <t>Pros:  the hotel is new.  Rooms are nice if a bit small.  Front desk staff is very friendly and was quite helpful in arranging transportation to the airport.  Walk in shower!    Ample parking if you have a car.Cons:  very noisy!!!  Walls are thin and road noise is quite loud.  Second night there was a party on my floor until well past 1 am.  No sleep that night.  No food nearby.  Breakfast was okay but it is nice to have access to food without having to leave the hotel.Luckily the pros out weigh the cons since I will be back in a few weeks.  I will, however try to get a quieter room!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Pros:  the hotel is new.  Rooms are nice if a bit small.  Front desk staff is very friendly and was quite helpful in arranging transportation to the airport.  Walk in shower!    Ample parking if you have a car.Cons:  very noisy!!!  Walls are thin and road noise is quite loud.  Second night there was a party on my floor until well past 1 am.  No sleep that night.  No food nearby.  Breakfast was okay but it is nice to have access to food without having to leave the hotel.Luckily the pros out weigh the cons since I will be back in a few weeks.  I will, however try to get a quieter room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r558433683-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>558433683</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Very clean and spacious room with a kitchenette and nice staff welcoming you. The hotel offers a good selection for hot breakfast. They could have had a bit better coffee.  It is about 10-15 minute drive from downtown. If you want to use public transit (RTD), you will need to take two buses from downtown and crossing the Federal Blvd could be a challenge. I could not find restaurants near hotel when I arrived late at night but the hotel had a decent selection of frozen food with very reasonable price. There is a school bus parking beside the hotel that could be noidy in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Very clean and spacious room with a kitchenette and nice staff welcoming you. The hotel offers a good selection for hot breakfast. They could have had a bit better coffee.  It is about 10-15 minute drive from downtown. If you want to use public transit (RTD), you will need to take two buses from downtown and crossing the Federal Blvd could be a challenge. I could not find restaurants near hotel when I arrived late at night but the hotel had a decent selection of frozen food with very reasonable price. There is a school bus parking beside the hotel that could be noidy in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r545680346-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>545680346</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Awesome Staff/Brooke/Fran/Cherryl</t>
+  </si>
+  <si>
+    <t>First of all, front office staff is awesome especially Brooke and Fran. They made me feel welcome the moment I walked in. Showed me the facility, offer me coffee, let me know what they offer. Brooke and Fran are awesome a big shout out for making guest welcome and being professional, friendly, and polite. The hotel is located in a great location and especially clean. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>First of all, front office staff is awesome especially Brooke and Fran. They made me feel welcome the moment I walked in. Showed me the facility, offer me coffee, let me know what they offer. Brooke and Fran are awesome a big shout out for making guest welcome and being professional, friendly, and polite. The hotel is located in a great location and especially clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r536977549-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536977549</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Great value, very pleased.</t>
+  </si>
+  <si>
+    <t>If you are on the business trip to Denver, this is a great place to stay.  We had a room with a king sized bed with a sofa that was also a fold out.  There was an actual closet to hang clothes, mini fridge, microwave, coffee maker.  There was plenty of room.  The room was spotlessly clean.  The price when we stayed was what we normally would pay for a lesser hotel, so we were extremely pleased.  Pros:1-Close to downtown, and right by the freeway in case you need to go other than downtown.2-Extremely comfortable bed, lots of pillows.3-Staff was great and very helpful when I asked for extra towels or a blanket.4-Air conditioner actually cooled the room to chill temperatures.  Anyone who is heat sensitive, stay here!5-Bathroom was well-lit, making it possible to actually put on make-up. Plenty of counter space.Cons:1-No restaurants within easy walking distance.  2-No towel rods in the bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>If you are on the business trip to Denver, this is a great place to stay.  We had a room with a king sized bed with a sofa that was also a fold out.  There was an actual closet to hang clothes, mini fridge, microwave, coffee maker.  There was plenty of room.  The room was spotlessly clean.  The price when we stayed was what we normally would pay for a lesser hotel, so we were extremely pleased.  Pros:1-Close to downtown, and right by the freeway in case you need to go other than downtown.2-Extremely comfortable bed, lots of pillows.3-Staff was great and very helpful when I asked for extra towels or a blanket.4-Air conditioner actually cooled the room to chill temperatures.  Anyone who is heat sensitive, stay here!5-Bathroom was well-lit, making it possible to actually put on make-up. Plenty of counter space.Cons:1-No restaurants within easy walking distance.  2-No towel rods in the bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r536495505-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536495505</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>AMAZING!</t>
+  </si>
+  <si>
+    <t>We loved this hotel. We had to go down to Denver to fly out for a funeral. We got in late but was warmly welcomed by Chelsea and Francisca(not sure if that is how it is spelled). We had a beautiful family suite that was ten times bigger then I expected it to be. My only complaint would be in the morning the breakfast staff was more concerned with chatting to housekeepers  about rumors then making sure the food was stocked and then looked bothered and upset when a gentlemen politely asked her if there were more omelets because he didn't want to take the last two when he saw me and my child behind him getting breakfast. If we ever return to Denver we will definitely stay again though.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>We loved this hotel. We had to go down to Denver to fly out for a funeral. We got in late but was warmly welcomed by Chelsea and Francisca(not sure if that is how it is spelled). We had a beautiful family suite that was ten times bigger then I expected it to be. My only complaint would be in the morning the breakfast staff was more concerned with chatting to housekeepers  about rumors then making sure the food was stocked and then looked bothered and upset when a gentlemen politely asked her if there were more omelets because he didn't want to take the last two when he saw me and my child behind him getting breakfast. If we ever return to Denver we will definitely stay again though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r535535438-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>535535438</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>New, incredibly clean, and beyond comfortable. So close to Pepsi Center.</t>
+  </si>
+  <si>
+    <t>This hotel was a bright spot on my way east from Idaho to upstate New York. The (king) bed was oversized and incredibly comfortable. The sectional couch in my incredibly clean, beautiful suite was very comfortable. Stunningly clean bathroom. The hotel has a genuinely great view of the Denver skyline and it's a short ten minute ride to the Pepsi Center for hockey. It's a new hotel and it's honestly pretty perfect. The only issue I ever had was that the front desk specifically asked for me to name them in my review (since I said I was very pleased and the hotel was incredible, especially for the lower price I paid) specifically because they apparently get a bonus if I name them. Come on guys. Don't beg.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was a bright spot on my way east from Idaho to upstate New York. The (king) bed was oversized and incredibly comfortable. The sectional couch in my incredibly clean, beautiful suite was very comfortable. Stunningly clean bathroom. The hotel has a genuinely great view of the Denver skyline and it's a short ten minute ride to the Pepsi Center for hockey. It's a new hotel and it's honestly pretty perfect. The only issue I ever had was that the front desk specifically asked for me to name them in my review (since I said I was very pleased and the hotel was incredible, especially for the lower price I paid) specifically because they apparently get a bonus if I name them. Come on guys. Don't beg.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r526529602-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>526529602</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Pretty upset</t>
+  </si>
+  <si>
+    <t>I'm very upset because I'm waiting for my house to be completed and have stayed at this location very often the first couple of times weren't that great because the rooms they checked me into still had booze in the fridge condoms left by the bed hair in the tub was horrible...I also have my children with me we stay at this location because it next to there school. I complained and they fixed the issue after it happens twice... this last time I stayed I tried to extend my stay by a day everything was fine in the room and no issues I was happy.. I was really upset because the look both the man and lady at the front desk gave each other were an uncomfortable  look like they didn't want me to stay. I worked for Hilton property's for 7 years, I know when we didn't want someone to stay we told them a way higher rate or that we we were sold out and of course seconds later the female told me they were sold out.. I'm very disappointed just because there actions. It isn't my fault these rooms before were an issue and I complained but I felt very unwanted and that's a bad feeling... I won't be staying here again!! The only one that actually took my thoughts into consideration was a female with curly hair and glasses about 5'3 she checked the room...I'm very upset because I'm waiting for my house to be completed and have stayed at this location very often the first couple of times weren't that great because the rooms they checked me into still had booze in the fridge condoms left by the bed hair in the tub was horrible...I also have my children with me we stay at this location because it next to there school. I complained and they fixed the issue after it happens twice... this last time I stayed I tried to extend my stay by a day everything was fine in the room and no issues I was happy.. I was really upset because the look both the man and lady at the front desk gave each other were an uncomfortable  look like they didn't want me to stay. I worked for Hilton property's for 7 years, I know when we didn't want someone to stay we told them a way higher rate or that we we were sold out and of course seconds later the female told me they were sold out.. I'm very disappointed just because there actions. It isn't my fault these rooms before were an issue and I complained but I felt very unwanted and that's a bad feeling... I won't be staying here again!! The only one that actually took my thoughts into consideration was a female with curly hair and glasses about 5'3 she checked the room for me before they checked me in.... But thanks comfort suites for not making me feel welcome in a tough time in my life!MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>I'm very upset because I'm waiting for my house to be completed and have stayed at this location very often the first couple of times weren't that great because the rooms they checked me into still had booze in the fridge condoms left by the bed hair in the tub was horrible...I also have my children with me we stay at this location because it next to there school. I complained and they fixed the issue after it happens twice... this last time I stayed I tried to extend my stay by a day everything was fine in the room and no issues I was happy.. I was really upset because the look both the man and lady at the front desk gave each other were an uncomfortable  look like they didn't want me to stay. I worked for Hilton property's for 7 years, I know when we didn't want someone to stay we told them a way higher rate or that we we were sold out and of course seconds later the female told me they were sold out.. I'm very disappointed just because there actions. It isn't my fault these rooms before were an issue and I complained but I felt very unwanted and that's a bad feeling... I won't be staying here again!! The only one that actually took my thoughts into consideration was a female with curly hair and glasses about 5'3 she checked the room...I'm very upset because I'm waiting for my house to be completed and have stayed at this location very often the first couple of times weren't that great because the rooms they checked me into still had booze in the fridge condoms left by the bed hair in the tub was horrible...I also have my children with me we stay at this location because it next to there school. I complained and they fixed the issue after it happens twice... this last time I stayed I tried to extend my stay by a day everything was fine in the room and no issues I was happy.. I was really upset because the look both the man and lady at the front desk gave each other were an uncomfortable  look like they didn't want me to stay. I worked for Hilton property's for 7 years, I know when we didn't want someone to stay we told them a way higher rate or that we we were sold out and of course seconds later the female told me they were sold out.. I'm very disappointed just because there actions. It isn't my fault these rooms before were an issue and I complained but I felt very unwanted and that's a bad feeling... I won't be staying here again!! The only one that actually took my thoughts into consideration was a female with curly hair and glasses about 5'3 she checked the room for me before they checked me in.... But thanks comfort suites for not making me feel welcome in a tough time in my life!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r525793117-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>525793117</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Would definitely stay again</t>
+  </si>
+  <si>
+    <t>Overall we were very pleased with this hotel. It is fairly new, kept clean with no odors that you often find in hotels, no pets and no smoking and you can open the windows at least a few inches even on the top floor where we stayed. The staff was helpful and it was located just a few minutes from the heart of downtown but right on a highway which made for a lot of road noise but easy access to get out of town and hike or go in town as well. Breakfast was one of the best I have experienced at this level of hotel. The workout room is extremely warm (thermostat does not seem to work and was set at 81* the whole time we were there) but pretty well equipped. Pool looked nice but chlorine smell was so strong we did not use. If you can tolerate the road noise and are okay not being able to walk to anything this is a clean, comfortable, well maintained hotel that I would certainly stay at again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Overall we were very pleased with this hotel. It is fairly new, kept clean with no odors that you often find in hotels, no pets and no smoking and you can open the windows at least a few inches even on the top floor where we stayed. The staff was helpful and it was located just a few minutes from the heart of downtown but right on a highway which made for a lot of road noise but easy access to get out of town and hike or go in town as well. Breakfast was one of the best I have experienced at this level of hotel. The workout room is extremely warm (thermostat does not seem to work and was set at 81* the whole time we were there) but pretty well equipped. Pool looked nice but chlorine smell was so strong we did not use. If you can tolerate the road noise and are okay not being able to walk to anything this is a clean, comfortable, well maintained hotel that I would certainly stay at again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r524977409-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524977409</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay </t>
+  </si>
+  <si>
+    <t>Great hotel Very clean and comfortable hotel. Friendly and helpful staff. The breakfast buffet is basic, eggs, sausage, waffle, yogurt , bread, biscuits and gravy. No bacon. Can be a little noisy of you have window open in room, close to the freeway. Would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel Very clean and comfortable hotel. Friendly and helpful staff. The breakfast buffet is basic, eggs, sausage, waffle, yogurt , bread, biscuits and gravy. No bacon. Can be a little noisy of you have window open in room, close to the freeway. Would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r508249759-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>508249759</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Terrific stay</t>
+  </si>
+  <si>
+    <t>Good location near the junction of I-25 and Highway 6th Avenue. Appears to be a newer hotel or at least very recently renovated. The building is shared by the Comfort Suites I stayed in and a Mainstay Suites (another Choice brand). Huge very well lighted parking lot. Mostly Latin / Spanish restaurants and fast food within walking distance of the hotel. Checked in quickly by a very personable and efficient desk clerk. Asked for and assigned upper floor room. My King Suite was very clean, very comfortable, nicely decorated and furnished - I loved it. The floor was totally quiet through the night, I slept great in the very comfortable bed. TV, coffee maker, shower, AC, all worked perfectly. Very nice, well cared for hotel, very close to Downtown Denver, charging a very reasonable rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Good location near the junction of I-25 and Highway 6th Avenue. Appears to be a newer hotel or at least very recently renovated. The building is shared by the Comfort Suites I stayed in and a Mainstay Suites (another Choice brand). Huge very well lighted parking lot. Mostly Latin / Spanish restaurants and fast food within walking distance of the hotel. Checked in quickly by a very personable and efficient desk clerk. Asked for and assigned upper floor room. My King Suite was very clean, very comfortable, nicely decorated and furnished - I loved it. The floor was totally quiet through the night, I slept great in the very comfortable bed. TV, coffee maker, shower, AC, all worked perfectly. Very nice, well cared for hotel, very close to Downtown Denver, charging a very reasonable rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r502277063-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>502277063</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Easy to get to downtown Denver</t>
+  </si>
+  <si>
+    <t>This was a personal trip for me and it involved a total of 7 people staying in one room. We got the queen bed suite and it fit everyone fine. 2 people on each bed, 2 on the couch pull out and 1 on the couch side that allows someone to lie down. In room microwave and refrigerator make bringing and storing things easy. The closet was average size but with that and the drawers we were able to put away everyone's items with ease. My only 2 issues with the hotel are 1. not enough towels or bedding. You would think that they would look at how many you have when you check into a room and put more things in there but they don't. 4 towels in the room and no bedding for the pull out couch bed so trips downstairs solved this issue. The staff easily gave us the needed items and we were set. Breakfast is nice though crowded. Breakfast is in a separate room that really doesn't allow for walking around and getting items you want. You pretty much have to stand in line and go all the way around instead of picking and choosing what you want then have fun finding a seat. The breakfast is really good though. My second issue was the location of my room. It faced Federal Blvd. You can hear the traffic all night long and all day so...This was a personal trip for me and it involved a total of 7 people staying in one room. We got the queen bed suite and it fit everyone fine. 2 people on each bed, 2 on the couch pull out and 1 on the couch side that allows someone to lie down. In room microwave and refrigerator make bringing and storing things easy. The closet was average size but with that and the drawers we were able to put away everyone's items with ease. My only 2 issues with the hotel are 1. not enough towels or bedding. You would think that they would look at how many you have when you check into a room and put more things in there but they don't. 4 towels in the room and no bedding for the pull out couch bed so trips downstairs solved this issue. The staff easily gave us the needed items and we were set. Breakfast is nice though crowded. Breakfast is in a separate room that really doesn't allow for walking around and getting items you want. You pretty much have to stand in line and go all the way around instead of picking and choosing what you want then have fun finding a seat. The breakfast is really good though. My second issue was the location of my room. It faced Federal Blvd. You can hear the traffic all night long and all day so if at all possible get a room on the inside of the hotel and not one that faces the parking lot and the road. If you do then it is loud.  However 4 stars because I was able to get all of is in the room comfortably and the pool is fun.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>This was a personal trip for me and it involved a total of 7 people staying in one room. We got the queen bed suite and it fit everyone fine. 2 people on each bed, 2 on the couch pull out and 1 on the couch side that allows someone to lie down. In room microwave and refrigerator make bringing and storing things easy. The closet was average size but with that and the drawers we were able to put away everyone's items with ease. My only 2 issues with the hotel are 1. not enough towels or bedding. You would think that they would look at how many you have when you check into a room and put more things in there but they don't. 4 towels in the room and no bedding for the pull out couch bed so trips downstairs solved this issue. The staff easily gave us the needed items and we were set. Breakfast is nice though crowded. Breakfast is in a separate room that really doesn't allow for walking around and getting items you want. You pretty much have to stand in line and go all the way around instead of picking and choosing what you want then have fun finding a seat. The breakfast is really good though. My second issue was the location of my room. It faced Federal Blvd. You can hear the traffic all night long and all day so...This was a personal trip for me and it involved a total of 7 people staying in one room. We got the queen bed suite and it fit everyone fine. 2 people on each bed, 2 on the couch pull out and 1 on the couch side that allows someone to lie down. In room microwave and refrigerator make bringing and storing things easy. The closet was average size but with that and the drawers we were able to put away everyone's items with ease. My only 2 issues with the hotel are 1. not enough towels or bedding. You would think that they would look at how many you have when you check into a room and put more things in there but they don't. 4 towels in the room and no bedding for the pull out couch bed so trips downstairs solved this issue. The staff easily gave us the needed items and we were set. Breakfast is nice though crowded. Breakfast is in a separate room that really doesn't allow for walking around and getting items you want. You pretty much have to stand in line and go all the way around instead of picking and choosing what you want then have fun finding a seat. The breakfast is really good though. My second issue was the location of my room. It faced Federal Blvd. You can hear the traffic all night long and all day so if at all possible get a room on the inside of the hotel and not one that faces the parking lot and the road. If you do then it is loud.  However 4 stars because I was able to get all of is in the room comfortably and the pool is fun.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r499008924-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>499008924</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Clean and friendly hotel. Breakfast was great. Close to downtown, easy access to downtown &amp; other surrounding sites. Only complaint is they don't give you clean towels &amp; wash cloths every day &amp; there is no place to hang your towel up to dry for you to reuse. Hard to find places to hang 4 towels in a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Clean and friendly hotel. Breakfast was great. Close to downtown, easy access to downtown &amp; other surrounding sites. Only complaint is they don't give you clean towels &amp; wash cloths every day &amp; there is no place to hang your towel up to dry for you to reuse. Hard to find places to hang 4 towels in a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r490853293-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>490853293</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stellar Customer Service! </t>
+  </si>
+  <si>
+    <t>We [three of us girls] stayed at Comfort Suites this past weekend and I was blown away by their customer service! From the moment I called them Thursday afternoon; I was impressed!It wasn't the location I was anticipating, and I would have loved an outdoor pool; but hey, our room and the customer service exceeded expectations by a long shot! Our room was FABULOUS, and very clean. Comfort has the best mattresses and pillows for a rejuvenating rest!! Special thanks to Liz and Cheryl for their great attitudes, and excellent customer service! We enjoyed our time there and will for sure be back to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>We [three of us girls] stayed at Comfort Suites this past weekend and I was blown away by their customer service! From the moment I called them Thursday afternoon; I was impressed!It wasn't the location I was anticipating, and I would have loved an outdoor pool; but hey, our room and the customer service exceeded expectations by a long shot! Our room was FABULOUS, and very clean. Comfort has the best mattresses and pillows for a rejuvenating rest!! Special thanks to Liz and Cheryl for their great attitudes, and excellent customer service! We enjoyed our time there and will for sure be back to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r489075846-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>489075846</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>They confirmed my reservation, then dumped me when I arrived.</t>
+  </si>
+  <si>
+    <t>I reserved 3 nights here with my credit card.  I called when I arrived at DIA at 10:00 pm and they confirmed my room.  When I arrived at 11:00 pm, they told me they were out of rooms.  I had to scramble to find an alternative.  Very unprofessional.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I reserved 3 nights here with my credit card.  I called when I arrived at DIA at 10:00 pm and they confirmed my room.  When I arrived at 11:00 pm, they told me they were out of rooms.  I had to scramble to find an alternative.  Very unprofessional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r488931260-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>488931260</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Great Spot</t>
+  </si>
+  <si>
+    <t>Property - very clean and new. Our room was a little small, to accommodate 2 queen beds one was pushed up next to the ac unit and was only accessible from one side.Breakfast - nice selection but all of the pastry items were still in need of some thawing both days.Pool - nice sized pool for the kids, no hot tub.Area - first night was quiet, second night federal sounded like a race track all night.Staff  - great,  friendly, helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Property - very clean and new. Our room was a little small, to accommodate 2 queen beds one was pushed up next to the ac unit and was only accessible from one side.Breakfast - nice selection but all of the pastry items were still in need of some thawing both days.Pool - nice sized pool for the kids, no hot tub.Area - first night was quiet, second night federal sounded like a race track all night.Staff  - great,  friendly, helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r480570776-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>480570776</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>New spot that needs tweeking</t>
+  </si>
+  <si>
+    <t>Awesome BRAND NEW hotel that has nice clean rooms and great free breakfast.BUT!!  They need to tweek the dryer on the 3rd floor to really dry your clothes for the amount that it charges. They need to have ample supply of quarters for guests to be able to provide change for the washing machines.The girl who serves the breakfast area, need to NOT sit wand watch everyone when they are eating as if she is analyzing the food being taken as they walk to their tableMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Awesome BRAND NEW hotel that has nice clean rooms and great free breakfast.BUT!!  They need to tweek the dryer on the 3rd floor to really dry your clothes for the amount that it charges. They need to have ample supply of quarters for guests to be able to provide change for the washing machines.The girl who serves the breakfast area, need to NOT sit wand watch everyone when they are eating as if she is analyzing the food being taken as they walk to their tableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r475138627-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>475138627</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow it was their grand opening. </t>
+  </si>
+  <si>
+    <t>I'm not sure if it was because my arms are covered in tattoos or the way I look but to be inside of a hotel on the grand opening day and not one person notify me even as I stood in the lobby was disheartening. To be in a lobby full of owners and managers the only person who even spoke was the chef who invited me in to eat. To listen to the managers talk was odd.  I would've expected this to have been the warmest welcome ever with all the top dogs on the premises. I'm sure this won't be the first time  you will see something outside of the normal diversion in this city,   "We" visit a little of every where MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>I'm not sure if it was because my arms are covered in tattoos or the way I look but to be inside of a hotel on the grand opening day and not one person notify me even as I stood in the lobby was disheartening. To be in a lobby full of owners and managers the only person who even spoke was the chef who invited me in to eat. To listen to the managers talk was odd.  I would've expected this to have been the warmest welcome ever with all the top dogs on the premises. I'm sure this won't be the first time  you will see something outside of the normal diversion in this city,   "We" visit a little of every where More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r471397536-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>471397536</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice and clean </t>
+  </si>
+  <si>
+    <t>This hotel was very nice and clean. Everyone was very friendly. However, they do not have sink plugs for the kitchenettes so it makes it inconvenient to wash dishes at this hotel. Also, I booked this hotel because it has an indoor pool, however, the pool was empty and being worked on. Wish that would have been stated MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and clean. Everyone was very friendly. However, they do not have sink plugs for the kitchenettes so it makes it inconvenient to wash dishes at this hotel. Also, I booked this hotel because it has an indoor pool, however, the pool was empty and being worked on. Wish that would have been stated More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1153,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1185,1601 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>214</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>238</v>
+      </c>
+      <c r="X24" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>246</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_32.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_32.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r602368243-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>12248781</t>
+  </si>
+  <si>
+    <t>602368243</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Most terrible service ever!</t>
+  </si>
+  <si>
+    <t>The police had to be called!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!: What a terrible service, we tried to check- in booking was made via booking.com  night clerk found it cancelled it because they forgot to clean. so then he offered to book 2 rooms for a lot more and on top we had to pay the booking.com costs . when refused he denied a family of 4 to help us further. we had to call to  police to make him help us. next morning no excuses of manager nothing. in the end the booking cost was refunded. what a terrible service can you imagine calling the police for make sure they help you. oh ja  our points etc etc etc nothing. lousy service of night-clerk. i waited to receive a apology never received.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Comfort S, General Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The police had to be called!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!: What a terrible service, we tried to check- in booking was made via booking.com  night clerk found it cancelled it because they forgot to clean. so then he offered to book 2 rooms for a lot more and on top we had to pay the booking.com costs . when refused he denied a family of 4 to help us further. we had to call to  police to make him help us. next morning no excuses of manager nothing. in the end the booking cost was refunded. what a terrible service can you imagine calling the police for make sure they help you. oh ja  our points etc etc etc nothing. lousy service of night-clerk. i waited to receive a apology never received.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r599825134-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>599825134</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Conviently located</t>
+  </si>
+  <si>
+    <t>This hotel was clean and the service was great. Our room was located right on the end and next to the highway so there was a lot of traffic noise at night. The king bed was comfy and the bathroom was large. The shower however could definitely use more water pressure, I felt I couldn’t get all the shampoo out of my hair. Overall the hotel was satisfactory. Denver hotels were all sold out for the time we were there so if possible book in advance. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This hotel was clean and the service was great. Our room was located right on the end and next to the highway so there was a lot of traffic noise at night. The king bed was comfy and the bathroom was large. The shower however could definitely use more water pressure, I felt I couldn’t get all the shampoo out of my hair. Overall the hotel was satisfactory. Denver hotels were all sold out for the time we were there so if possible book in advance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r597697542-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>597697542</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Comfy stay!!</t>
+  </si>
+  <si>
+    <t>Hotel was comfortable and very clean.  It was an enjoyable experience.  Breakfast was nothing special but above average quality.  This hotel is near downtown Denver as described but not in the heart of it, for those looking to stay not to close but not too far.  It is in a safe area as well.  You will be staying next to one of the freeways but we didn't hear much noise or bustle.  Overall, this was a great choice for out one night stop-over.  It was pricey but worth it for a clean and safe stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was comfortable and very clean.  It was an enjoyable experience.  Breakfast was nothing special but above average quality.  This hotel is near downtown Denver as described but not in the heart of it, for those looking to stay not to close but not too far.  It is in a safe area as well.  You will be staying next to one of the freeways but we didn't hear much noise or bustle.  Overall, this was a great choice for out one night stop-over.  It was pricey but worth it for a clean and safe stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r593646094-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>12248781</t>
-  </si>
-  <si>
     <t>593646094</t>
   </si>
   <si>
@@ -174,16 +243,10 @@
     <t>so, i don't have a dog, but people might like this convenience... nice hotel.very roomy, good staff, clean room.. wi-fi required regular and multiple log-ins.typical breakfast.  pool.   I would certainly return.. this hotel shares a building with Mainstay Hotels... don't know about the other , but two hotels on one property... interesting.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
   </si>
   <si>
     <t>so, i don't have a dog, but people might like this convenience... nice hotel.very roomy, good staff, clean room.. wi-fi required regular and multiple log-ins.typical breakfast.  pool.   I would certainly return.. this hotel shares a building with Mainstay Hotels... don't know about the other , but two hotels on one property... interesting.More</t>
@@ -240,6 +303,57 @@
     <t>Clean and modern hotel with spacious rooms containing full amenities. Welcoming staff, indoor pool, great fitness centre and good breakfast. Also offer free snacks at night. Wifi works well and lots of free parking. The only complaints are that the area is a bit run down and there was a noise somewhere in the motel like gurgling pipes. Unsure if it was widespread or just our room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r585012813-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>585012813</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Love the extras.</t>
+  </si>
+  <si>
+    <t>The room was nice, plenty of room inside, but the windows were not great, you could hear road traffic clearly.  One night it seemed like 2 guests were "partying" in the parking lot late while blasting music from their motorcycles, it went on for a bit,  The staff was really nice, but did not seem to notice or deal with the issue and I honestly did not raise it.  Hotel has a nice breakfast as well as a dinner reception that had hot dogs, chicken fingers, nachos, etc each night.  Also had yummy cookies and brownies each night. I would stay again, but would ask for a room on the back side of the hotel, it maybe quieter.  The location although not downtown was right off the freeway and not a far ride to downtown although there was not alot within walking distance of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>The room was nice, plenty of room inside, but the windows were not great, you could hear road traffic clearly.  One night it seemed like 2 guests were "partying" in the parking lot late while blasting music from their motorcycles, it went on for a bit,  The staff was really nice, but did not seem to notice or deal with the issue and I honestly did not raise it.  Hotel has a nice breakfast as well as a dinner reception that had hot dogs, chicken fingers, nachos, etc each night.  Also had yummy cookies and brownies each night. I would stay again, but would ask for a room on the back side of the hotel, it maybe quieter.  The location although not downtown was right off the freeway and not a far ride to downtown although there was not alot within walking distance of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r583468074-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583468074</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Not "Near Downtown"</t>
+  </si>
+  <si>
+    <t>While not far to drive, this hotel is not near downtown.  It is west of downtown about 5-10 miles in an area that is not suitable for walking around.  The address can be confusing.  There is a North Federal Blvd and a South Federal Blvd, Neither of which are connected to Federal Blvd.  The hotel has a weak wifi signal, not consistently reliable. The room was large and comfortable.  The staff was friendly and efficient.  A decent breakfast is provided.  Parking is convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>While not far to drive, this hotel is not near downtown.  It is west of downtown about 5-10 miles in an area that is not suitable for walking around.  The address can be confusing.  There is a North Federal Blvd and a South Federal Blvd, Neither of which are connected to Federal Blvd.  The hotel has a weak wifi signal, not consistently reliable. The room was large and comfortable.  The staff was friendly and efficient.  A decent breakfast is provided.  Parking is convenient.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r582090524-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -255,9 +369,6 @@
     <t>This hotel is about a year old, very modern decor and comfortable accommodations.  The service was friendly.  Here's where they lost me:  The toilet ran all night, the WiFi is not streaming device friendly, and the shower pressure was very weak.Expected a little more.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -285,9 +396,6 @@
     <t>Overall, the experience was great. The staff were very helpful and friendly. The hotel was clean, the continental breakfast was great, and free parking! Even though it isn't downtown it is right by the freeway and a short drive. The only con I will mention was that the surrounding area didn't seem like a great place. That being said the hotel parking lot and hotel itself were perfectly fine. You just wouldn't want to venture out for a walk anywhere.I would definitely recommend this hotel to anyone looking to stay in Denver.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Overall, the experience was great. The staff were very helpful and friendly. The hotel was clean, the continental breakfast was great, and free parking! Even though it isn't downtown it is right by the freeway and a short drive. The only con I will mention was that the surrounding area didn't seem like a great place. That being said the hotel parking lot and hotel itself were perfectly fine. You just wouldn't want to venture out for a walk anywhere.I would definitely recommend this hotel to anyone looking to stay in Denver.More</t>
   </si>
   <si>
@@ -318,6 +426,51 @@
     <t>Pros:-free parking-free coffee, cookies, drinks, dinner sometimes, and breakfast-friendly staff-nice rooms-comfy beds-good location-hot breakfast items-free wifiCons:-no towel racks or bars in the bathroomMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r561306569-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>561306569</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel Close to Downtown</t>
+  </si>
+  <si>
+    <t>Stayed for an overnight at this new hotel. The staff was very attentive at check in. The worked to find me a a room that would be quite. The room was comfortable with a seperate sitting area and sleeping area. The room was very clean and well kept. The pool was nice. The only downside to this was no hottub. The hotel is very close to downtown Denver and many major attrections. The breakfast in the morning was quite large and the food was good. I would highly reccomend this hotel if you need to be downtown Denver, but do not want to pay the cost of staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Stayed for an overnight at this new hotel. The staff was very attentive at check in. The worked to find me a a room that would be quite. The room was comfortable with a seperate sitting area and sleeping area. The room was very clean and well kept. The pool was nice. The only downside to this was no hottub. The hotel is very close to downtown Denver and many major attrections. The breakfast in the morning was quite large and the food was good. I would highly reccomend this hotel if you need to be downtown Denver, but do not want to pay the cost of staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r560286743-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>560286743</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Excellent new hotel with wonderful service. Just be sure to bring a car.</t>
+  </si>
+  <si>
+    <t>Like other hotels at this level, you're not going to find the frills of some of the bigger chains downtown. But this property does everything well that a mid-range hotel should. As others has mentioned, this is a new hotel and the rooms are very clean. I found it to be spacious with a comfortable bed and much-appreciated fridge and coffeemaker. Their workout room was small but airy and had a bright window (those who have trotted on treadmills in sad, windowless basements will understand). I appreciated the snacks in the afternoon and the usual suspects at breakfast. The front-desk staff was wonderful and deserve a star for themselves.The only drawback is the location--there really isn't anything around, which is fine if you just need a home base or are just passing through. Downtown is less than a ten-minute drive away But there are no restaurants or even drugstores within walking distance. Just something to keep in mind when planning your visit.I used to stay in Comfort Suites as much as possible when traveling for work, as they were consistently good. I've been off the road for a while, so I was pleasantly surprised to see that the chain continues to hold up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Like other hotels at this level, you're not going to find the frills of some of the bigger chains downtown. But this property does everything well that a mid-range hotel should. As others has mentioned, this is a new hotel and the rooms are very clean. I found it to be spacious with a comfortable bed and much-appreciated fridge and coffeemaker. Their workout room was small but airy and had a bright window (those who have trotted on treadmills in sad, windowless basements will understand). I appreciated the snacks in the afternoon and the usual suspects at breakfast. The front-desk staff was wonderful and deserve a star for themselves.The only drawback is the location--there really isn't anything around, which is fine if you just need a home base or are just passing through. Downtown is less than a ten-minute drive away But there are no restaurants or even drugstores within walking distance. Just something to keep in mind when planning your visit.I used to stay in Comfort Suites as much as possible when traveling for work, as they were consistently good. I've been off the road for a while, so I was pleasantly surprised to see that the chain continues to hold up.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r558469522-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -336,12 +489,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded February 22, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 22, 2018</t>
-  </si>
-  <si>
     <t>Pros:  the hotel is new.  Rooms are nice if a bit small.  Front desk staff is very friendly and was quite helpful in arranging transportation to the airport.  Walk in shower!    Ample parking if you have a car.Cons:  very noisy!!!  Walls are thin and road noise is quite loud.  Second night there was a party on my floor until well past 1 am.  No sleep that night.  No food nearby.  Breakfast was okay but it is nice to have access to food without having to leave the hotel.Luckily the pros out weigh the cons since I will be back in a few weeks.  I will, however try to get a quieter room!More</t>
   </si>
   <si>
@@ -390,6 +537,51 @@
     <t>First of all, front office staff is awesome especially Brooke and Fran. They made me feel welcome the moment I walked in. Showed me the facility, offer me coffee, let me know what they offer. Brooke and Fran are awesome a big shout out for making guest welcome and being professional, friendly, and polite. The hotel is located in a great location and especially clean. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r544279992-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544279992</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>I will definitely be staying here in the future. The location is west of the downtown area and there are many pluses to staying here. They started last night doing their managers reception and had many different foods to choose from. The breakfast was above average and they also have cookies and brownies in the front area for you to enjoy. The rooms were quite large and had a huge TV. If you are a member of choice privileges there are even more bonuses for you. The only downside is not many restaurants nearby within walking distance but you can drive to hundreds of them within one or 2 miles.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I will definitely be staying here in the future. The location is west of the downtown area and there are many pluses to staying here. They started last night doing their managers reception and had many different foods to choose from. The breakfast was above average and they also have cookies and brownies in the front area for you to enjoy. The rooms were quite large and had a huge TV. If you are a member of choice privileges there are even more bonuses for you. The only downside is not many restaurants nearby within walking distance but you can drive to hundreds of them within one or 2 miles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r539386234-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539386234</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>LOVE this hotel</t>
+  </si>
+  <si>
+    <t>I travel to Denver monthly for business.  I have struggled to find an affordable hotel that isnt shady.  FINALLY I am home.  Great hotel, doesnt feel like you are downtown, as its set a bit off the interstate.  staff was great and offered up recommendations to a cute little diner up the street that was quite good.  As a Choice Privileges member I received a free snack and drink upon arrival.  They also have free cookies, coffee, tea and hot coco. There is also a little "market" if you need any extras.  Rooms were great!  for $99 I had a comfy king bed, a nice desk/office area, as well as a sofa area where my co worker lounged as we worked out the schedule for the next day.  I actually booked my next stay before I checked out.  Thanks for being awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>I travel to Denver monthly for business.  I have struggled to find an affordable hotel that isnt shady.  FINALLY I am home.  Great hotel, doesnt feel like you are downtown, as its set a bit off the interstate.  staff was great and offered up recommendations to a cute little diner up the street that was quite good.  As a Choice Privileges member I received a free snack and drink upon arrival.  They also have free cookies, coffee, tea and hot coco. There is also a little "market" if you need any extras.  Rooms were great!  for $99 I had a comfy king bed, a nice desk/office area, as well as a sofa area where my co worker lounged as we worked out the schedule for the next day.  I actually booked my next stay before I checked out.  Thanks for being awesome!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r536977549-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -408,12 +600,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded November 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 17, 2017</t>
-  </si>
-  <si>
     <t>If you are on the business trip to Denver, this is a great place to stay.  We had a room with a king sized bed with a sofa that was also a fold out.  There was an actual closet to hang clothes, mini fridge, microwave, coffee maker.  There was plenty of room.  The room was spotlessly clean.  The price when we stayed was what we normally would pay for a lesser hotel, so we were extremely pleased.  Pros:1-Close to downtown, and right by the freeway in case you need to go other than downtown.2-Extremely comfortable bed, lots of pillows.3-Staff was great and very helpful when I asked for extra towels or a blanket.4-Air conditioner actually cooled the room to chill temperatures.  Anyone who is heat sensitive, stay here!5-Bathroom was well-lit, making it possible to actually put on make-up. Plenty of counter space.Cons:1-No restaurants within easy walking distance.  2-No towel rods in the bathroom.More</t>
   </si>
   <si>
@@ -468,6 +654,56 @@
     <t>This hotel was a bright spot on my way east from Idaho to upstate New York. The (king) bed was oversized and incredibly comfortable. The sectional couch in my incredibly clean, beautiful suite was very comfortable. Stunningly clean bathroom. The hotel has a genuinely great view of the Denver skyline and it's a short ten minute ride to the Pepsi Center for hockey. It's a new hotel and it's honestly pretty perfect. The only issue I ever had was that the front desk specifically asked for me to name them in my review (since I said I was very pleased and the hotel was incredible, especially for the lower price I paid) specifically because they apparently get a bonus if I name them. Come on guys. Don't beg.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r532726036-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532726036</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>5 stars for value, comfort, service, and (oddly) location</t>
+  </si>
+  <si>
+    <t>This hotel is in a "weird" location, almost like in the middle of nowhere. I was a bit apprehensive when I got to the hotel for checkin, but the concern was soon allayed by the front desk folks - efficient and friendly, they got us our room quick enough. 
+The room was reasonably large - a king bed with enough space for a sofa and lounger for watching TV, all without making the room seemed cramped. A working desk with lots of power sockets (110V &amp; USB) made it functional. The bathroom was roomy with a nice shower. Room had a microwave, fridge and coffee maker.
+As mentioned, this hotel seems to be in the middle of "nowhere" so the view is nothing to shout about - ours overlooked a school bus yard and Denver's skyline in the distance. The hotel is near the highway but we didn't detect the traffic noise at night.
+Breakfast is included with a warm and hot buffet. The 2 days I was there, same type of foods (sausages, eggs, potatoes, cereals, oats, pancakes, etc). They are relatively new apparently, so have not started their evening receptions. 
+Although the location of the hotel seems "odd",  a little distance to the East (left of the hotel), are some excellent Vietnamese food (including pho), and we found a dim sum place (Star Kitchen) that served excellent dim sum &amp; cantonese food. Good enough to rival the top...This hotel is in a "weird" location, almost like in the middle of nowhere. I was a bit apprehensive when I got to the hotel for checkin, but the concern was soon allayed by the front desk folks - efficient and friendly, they got us our room quick enough. The room was reasonably large - a king bed with enough space for a sofa and lounger for watching TV, all without making the room seemed cramped. A working desk with lots of power sockets (110V &amp; USB) made it functional. The bathroom was roomy with a nice shower. Room had a microwave, fridge and coffee maker.As mentioned, this hotel seems to be in the middle of "nowhere" so the view is nothing to shout about - ours overlooked a school bus yard and Denver's skyline in the distance. The hotel is near the highway but we didn't detect the traffic noise at night.Breakfast is included with a warm and hot buffet. The 2 days I was there, same type of foods (sausages, eggs, potatoes, cereals, oats, pancakes, etc). They are relatively new apparently, so have not started their evening receptions. Although the location of the hotel seems "odd",  a little distance to the East (left of the hotel), are some excellent Vietnamese food (including pho), and we found a dim sum place (Star Kitchen) that served excellent dim sum &amp; cantonese food. Good enough to rival the top ones in Bay Area! A short drive gets you to downtown Denver and the surrounding neighbourhoods with good food, so if you have a car, good food is not an issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is in a "weird" location, almost like in the middle of nowhere. I was a bit apprehensive when I got to the hotel for checkin, but the concern was soon allayed by the front desk folks - efficient and friendly, they got us our room quick enough. 
+The room was reasonably large - a king bed with enough space for a sofa and lounger for watching TV, all without making the room seemed cramped. A working desk with lots of power sockets (110V &amp; USB) made it functional. The bathroom was roomy with a nice shower. Room had a microwave, fridge and coffee maker.
+As mentioned, this hotel seems to be in the middle of "nowhere" so the view is nothing to shout about - ours overlooked a school bus yard and Denver's skyline in the distance. The hotel is near the highway but we didn't detect the traffic noise at night.
+Breakfast is included with a warm and hot buffet. The 2 days I was there, same type of foods (sausages, eggs, potatoes, cereals, oats, pancakes, etc). They are relatively new apparently, so have not started their evening receptions. 
+Although the location of the hotel seems "odd",  a little distance to the East (left of the hotel), are some excellent Vietnamese food (including pho), and we found a dim sum place (Star Kitchen) that served excellent dim sum &amp; cantonese food. Good enough to rival the top...This hotel is in a "weird" location, almost like in the middle of nowhere. I was a bit apprehensive when I got to the hotel for checkin, but the concern was soon allayed by the front desk folks - efficient and friendly, they got us our room quick enough. The room was reasonably large - a king bed with enough space for a sofa and lounger for watching TV, all without making the room seemed cramped. A working desk with lots of power sockets (110V &amp; USB) made it functional. The bathroom was roomy with a nice shower. Room had a microwave, fridge and coffee maker.As mentioned, this hotel seems to be in the middle of "nowhere" so the view is nothing to shout about - ours overlooked a school bus yard and Denver's skyline in the distance. The hotel is near the highway but we didn't detect the traffic noise at night.Breakfast is included with a warm and hot buffet. The 2 days I was there, same type of foods (sausages, eggs, potatoes, cereals, oats, pancakes, etc). They are relatively new apparently, so have not started their evening receptions. Although the location of the hotel seems "odd",  a little distance to the East (left of the hotel), are some excellent Vietnamese food (including pho), and we found a dim sum place (Star Kitchen) that served excellent dim sum &amp; cantonese food. Good enough to rival the top ones in Bay Area! A short drive gets you to downtown Denver and the surrounding neighbourhoods with good food, so if you have a car, good food is not an issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r532472432-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532472432</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Front Desk Team Members</t>
+  </si>
+  <si>
+    <t>Beginning yesterday (Oct 11, 2017) when making reservations for our stay in Denver, we came in contact with Cheryl and Chelsea at the front desk. I was having difficulties with the reservation system. Immediately Cheryl and Chelsea jumped into action.  Within seconds this team of professionals apologized for the problem I was having and solved my issue.  I am so very glad my wife and I decided to stay at this Comfort Suites location. THANK YOU CHERYL AND CHELSEA!MoreShow less</t>
+  </si>
+  <si>
+    <t>Beginning yesterday (Oct 11, 2017) when making reservations for our stay in Denver, we came in contact with Cheryl and Chelsea at the front desk. I was having difficulties with the reservation system. Immediately Cheryl and Chelsea jumped into action.  Within seconds this team of professionals apologized for the problem I was having and solved my issue.  I am so very glad my wife and I decided to stay at this Comfort Suites location. THANK YOU CHERYL AND CHELSEA!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r526529602-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -540,6 +776,51 @@
     <t>Great hotel Very clean and comfortable hotel. Friendly and helpful staff. The breakfast buffet is basic, eggs, sausage, waffle, yogurt , bread, biscuits and gravy. No bacon. Can be a little noisy of you have window open in room, close to the freeway. Would stay here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r522720491-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>522720491</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>WONDERFUL STAY!</t>
+  </si>
+  <si>
+    <t>This hotel is new, nice and close to everything. The beds were comfortable, the desk personnel friendly, the lobby inviting. Good hot breakfast with biscuits and gravy, waffles-even blueberry waffles, eggs, oatmeal fruit. The pool was clean and inviting. Uber rides downtown were $6-$8, depending on where we went.  It was under 20 minutes to drive out to Red Rocks. The hotels location is very convenient for getting downtown. We were very pleased with our choice of hotel. Cheryl at the front desk is fantastic! I hope to stay here again when I travel to Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is new, nice and close to everything. The beds were comfortable, the desk personnel friendly, the lobby inviting. Good hot breakfast with biscuits and gravy, waffles-even blueberry waffles, eggs, oatmeal fruit. The pool was clean and inviting. Uber rides downtown were $6-$8, depending on where we went.  It was under 20 minutes to drive out to Red Rocks. The hotels location is very convenient for getting downtown. We were very pleased with our choice of hotel. Cheryl at the front desk is fantastic! I hope to stay here again when I travel to Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r515401776-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>515401776</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Just Fabulous</t>
+  </si>
+  <si>
+    <t>We have some usual hotels in Denver and this is our new regular location for sure. Coming in late and being greeted by Alice was wonderful. Answered our questions and helped us get easily situated for the night. She was a ray of sunshine after a long day. 5 stars for cleanliness and warmth here. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We have some usual hotels in Denver and this is our new regular location for sure. Coming in late and being greeted by Alice was wonderful. Answered our questions and helped us get easily situated for the night. She was a ray of sunshine after a long day. 5 stars for cleanliness and warmth here. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r508249759-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -618,6 +899,54 @@
     <t>Clean and friendly hotel. Breakfast was great. Close to downtown, easy access to downtown &amp; other surrounding sites. Only complaint is they don't give you clean towels &amp; wash cloths every day &amp; there is no place to hang your towel up to dry for you to reuse. Hard to find places to hang 4 towels in a room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r496372499-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>496372499</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Frustration</t>
+  </si>
+  <si>
+    <t>Our reservations were for a two night stay. First impression upon entering the room was "Wow, this has been updated and it's really nice". We did find a few items, the shower door handle was not completely attached to the door, the shower leaked pretty significantly, and it was our intent to tell management so they would  fix these for the next guests. No deal breaker here. What was a bother to us was the blackout shade which was partially off the track and did not fully close, with a bright outdoor  light shining through. We tried calling the front desk and maintenance to get it fixed and could not reach anyone. We made do for the night but reported it the next day asking that they please fix the shade issue before that night. We actually spoke with the manager on duty three times with a promise he would send someone to fix the shade, which did not happen. I hate when someone pretends to listen to a problem one has and then completely blows us off. I'm giving a lower rating to this business because of the treatment we received. We both agree we will not stay at this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Our reservations were for a two night stay. First impression upon entering the room was "Wow, this has been updated and it's really nice". We did find a few items, the shower door handle was not completely attached to the door, the shower leaked pretty significantly, and it was our intent to tell management so they would  fix these for the next guests. No deal breaker here. What was a bother to us was the blackout shade which was partially off the track and did not fully close, with a bright outdoor  light shining through. We tried calling the front desk and maintenance to get it fixed and could not reach anyone. We made do for the night but reported it the next day asking that they please fix the shade issue before that night. We actually spoke with the manager on duty three times with a promise he would send someone to fix the shade, which did not happen. I hate when someone pretends to listen to a problem one has and then completely blows us off. I'm giving a lower rating to this business because of the treatment we received. We both agree we will not stay at this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r494165514-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>494165514</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Although it has been recently updated, it can only be considered average.The tub in our bathroom room was installed tilted to the floor which made exiting sketchy, they had recently suffered a water leak in the unit above and it was very noticeable damage that hadn't been repaired yet.The tv cable in our room was bad causing certain channels to pixelate.  Beds were decent.  The roll out isn't that great.How ever the morning breakfast was surprising good.So that made a few of the sour notes a bit tastier.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Comfort Suites Denver Near Downtown, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Although it has been recently updated, it can only be considered average.The tub in our bathroom room was installed tilted to the floor which made exiting sketchy, they had recently suffered a water leak in the unit above and it was very noticeable damage that hadn't been repaired yet.The tv cable in our room was bad causing certain channels to pixelate.  Beds were decent.  The roll out isn't that great.How ever the morning breakfast was surprising good.So that made a few of the sour notes a bit tastier.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r490853293-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -690,6 +1019,54 @@
     <t>Property - very clean and new. Our room was a little small, to accommodate 2 queen beds one was pushed up next to the ac unit and was only accessible from one side.Breakfast - nice selection but all of the pastry items were still in need of some thawing both days.Pool - nice sized pool for the kids, no hot tub.Area - first night was quiet, second night federal sounded like a race track all night.Staff  - great,  friendly, helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r485815941-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>485815941</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome hotel </t>
+  </si>
+  <si>
+    <t>I had so much fun in Denver and I can't believe how accommodating comfort suites was. I came in asking directions to where I was going because I was lost and Cora and Virginia helped me out with directions and gave me more help than I ever expected!!! They were so helpful and kind! I am definitely going to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>I had so much fun in Denver and I can't believe how accommodating comfort suites was. I came in asking directions to where I was going because I was lost and Cora and Virginia helped me out with directions and gave me more help than I ever expected!!! They were so helpful and kind! I am definitely going to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r482302894-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>482302894</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing stay </t>
+  </si>
+  <si>
+    <t>I couldn't have chosen a better hotel to spend my time in Denver with. Front desk people were super helpful. Virginia helped me with all my needs. You couldn't have a better employee than Virginia. Will definitely chose this hotel the next time I choose to stay in DenverMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>I couldn't have chosen a better hotel to spend my time in Denver with. Front desk people were super helpful. Virginia helped me with all my needs. You couldn't have a better employee than Virginia. Will definitely chose this hotel the next time I choose to stay in DenverMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12248781-r480570776-Comfort_Suites_Denver_Near_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
@@ -708,12 +1085,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Management response:Responded May 15, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 15, 2017</t>
-  </si>
-  <si>
     <t>Awesome BRAND NEW hotel that has nice clean rooms and great free breakfast.BUT!!  They need to tweek the dryer on the 3rd floor to really dry your clothes for the amount that it charges. They need to have ample supply of quarters for guests to be able to provide change for the washing machines.The girl who serves the breakfast area, need to NOT sit wand watch everyone when they are eating as if she is analyzing the food being taken as they walk to their tableMore</t>
   </si>
   <si>
@@ -730,12 +1101,6 @@
   </si>
   <si>
     <t>I'm not sure if it was because my arms are covered in tattoos or the way I look but to be inside of a hotel on the grand opening day and not one person notify me even as I stood in the lobby was disheartening. To be in a lobby full of owners and managers the only person who even spoke was the chef who invited me in to eat. To listen to the managers talk was odd.  I would've expected this to have been the warmest welcome ever with all the top dogs on the premises. I'm sure this won't be the first time  you will see something outside of the normal diversion in this city,   "We" visit a little of every where MoreShow less</t>
-  </si>
-  <si>
-    <t>Management response:Responded May 21, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 21, 2017</t>
   </si>
   <si>
     <t>I'm not sure if it was because my arms are covered in tattoos or the way I look but to be inside of a hotel on the grand opening day and not one person notify me even as I stood in the lobby was disheartening. To be in a lobby full of owners and managers the only person who even spoke was the chef who invited me in to eat. To listen to the managers talk was odd.  I would've expected this to have been the warmest welcome ever with all the top dogs on the premises. I'm sure this won't be the first time  you will see something outside of the normal diversion in this city,   "We" visit a little of every where More</t>
@@ -1294,7 +1659,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1303,14 +1668,16 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1359,10 +1726,14 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1373,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
         <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1395,7 +1766,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1404,22 +1775,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -1427,20 +1798,24 @@
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1456,7 +1831,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1465,47 +1840,47 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1521,7 +1896,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1530,49 +1905,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1588,7 +1953,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1597,49 +1962,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +2014,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1664,43 +2023,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1716,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1725,49 +2090,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
         <v>4</v>
       </c>
-      <c r="N9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -1783,7 +2148,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1792,43 +2157,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
         <v>116</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" t="s">
-        <v>120</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1844,7 +2213,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1853,49 +2222,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
         <v>125</v>
       </c>
-      <c r="J11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" t="s">
-        <v>128</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -1911,7 +2280,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1920,22 +2289,22 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
@@ -1943,10 +2312,10 @@
       <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -1956,13 +2325,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -1978,7 +2347,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1987,49 +2356,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -2045,7 +2412,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2054,43 +2421,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2106,7 +2479,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2115,47 +2488,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -2171,7 +2540,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2180,43 +2549,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -2232,7 +2607,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2241,49 +2616,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
@@ -2299,7 +2668,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2308,49 +2677,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -2366,7 +2729,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2375,43 +2738,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -2427,7 +2794,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2436,43 +2803,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>205</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
@@ -2488,7 +2861,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2497,43 +2870,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="X21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -2549,7 +2928,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2558,43 +2937,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
@@ -2610,7 +2995,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2619,32 +3004,30 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
         <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>229</v>
-      </c>
-      <c r="O23" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
@@ -2655,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -2677,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2686,39 +3069,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
@@ -2734,7 +3127,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2743,22 +3136,22 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
@@ -2773,13 +3166,1068 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>231</v>
+      </c>
+      <c r="X25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
         <v>238</v>
       </c>
-      <c r="X25" t="s">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
         <v>239</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>193</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
         <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>280</v>
+      </c>
+      <c r="X31" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>279</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>296</v>
+      </c>
+      <c r="X33" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X34" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>279</v>
+      </c>
+      <c r="O35" t="s">
+        <v>312</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>313</v>
+      </c>
+      <c r="X35" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" t="s">
+        <v>117</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>313</v>
+      </c>
+      <c r="X36" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s">
+        <v>327</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>328</v>
+      </c>
+      <c r="X37" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>332</v>
+      </c>
+      <c r="J38" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" t="s">
+        <v>334</v>
+      </c>
+      <c r="L38" t="s">
+        <v>335</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>321</v>
+      </c>
+      <c r="O38" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>336</v>
+      </c>
+      <c r="X38" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" t="s">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s">
+        <v>343</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O39" t="s">
+        <v>169</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>344</v>
+      </c>
+      <c r="X39" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>344</v>
+      </c>
+      <c r="X40" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s">
+        <v>358</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>336</v>
+      </c>
+      <c r="X41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65533</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K42" t="s">
+        <v>363</v>
+      </c>
+      <c r="L42" t="s">
+        <v>364</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>336</v>
+      </c>
+      <c r="X42" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
